--- a/3. html_workspaces/22.02.24/모델링연습.xlsx
+++ b/3. html_workspaces/22.02.24/모델링연습.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>차량번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,6 +135,10 @@
   </si>
   <si>
     <t>운행중임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운행여부가 Y인 차량에 대해서만 UUID를 관리하는 테이블이 만들어져야 함</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -477,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:H27"/>
+  <dimension ref="C3:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -697,9 +701,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C27">
-        <v>5</v>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
